--- a/code/NMN.xlsx
+++ b/code/NMN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>gid</t>
   </si>
@@ -38,18 +38,27 @@
     <t>Vùng phục vụ</t>
   </si>
   <si>
+    <t>NMN. Vĩnh Bảo 1</t>
+  </si>
+  <si>
+    <t>Cầu Liễn Thâm, TT Vĩnh Bảo</t>
+  </si>
+  <si>
+    <t>Công ty CP cấp nước Hải Phòng</t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t>6 xã, thị trấn: 100% Thị trấn Vĩnh Bảo; 100% Tân Liên, 100% Tân Hưng, 25% Việt Tiến (1/10 thôn Tẩm Thượng), 27% Trung Lập (2/8 thôn Áng Ngoại 1,2), 25% Vĩnh An (3/7 thôn An Ninh, Cầu Thượng, Thị tứ Vĩnh An)</t>
+  </si>
+  <si>
     <t>NMN. Vĩnh Bảo 2 (Cầu Đòng)</t>
   </si>
   <si>
     <t>Thôn Cúc Phố, xã Vinh Quang</t>
   </si>
   <si>
-    <t>Công ty CP cấp nước Hải Phòng</t>
-  </si>
-  <si>
-    <t>Tốt</t>
-  </si>
-  <si>
     <t>6 xã: 100% Nhân Hòa, 100% Tam Đa, 70% Cộng Hiền (5/9 thôn) ,60% Vinh Quang (5/10 thôn); 22% Hưng Nhân (1 thôn); 3% An Hòa (4/8 thôn An Đồng, Kênh Hữu, Thượng Đồng, Hạ Đồng);</t>
   </si>
   <si>
@@ -426,18 +435,6 @@
   </si>
   <si>
     <t>Thôn 2, xã Vĩnh Tiến</t>
-  </si>
-  <si>
-    <t>NMN. Vĩnh Bảo 1</t>
-  </si>
-  <si>
-    <t>chưa có dữ liệu</t>
-  </si>
-  <si>
-    <t>Cầu Liễn Thâm, TT Vĩnh Bảo</t>
-  </si>
-  <si>
-    <t>6 xã, thị trấn: 100% Thị trấn Vĩnh Bảo; 100% Tân Liên, 100% Tân Hưng, 25% Việt Tiến (1/10 thôn Tẩm Thượng), 27% Trung Lập (2/8 thôn Áng Ngoại 1,2), 25% Vĩnh An (3/7 thôn An Ninh, Cầu Thượng, Thị tứ Vĩnh An)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +833,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -857,187 +854,187 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3"/>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1049,16 +1046,16 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -1070,64 +1067,62 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -1139,62 +1134,64 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -1206,16 +1203,16 @@
         <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -1227,16 +1224,16 @@
         <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -1248,16 +1245,16 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -1269,16 +1266,16 @@
         <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -1290,39 +1287,39 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
@@ -1334,39 +1331,39 @@
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
         <v>102</v>
       </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
@@ -1378,108 +1375,108 @@
         <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>107</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
         <v>108</v>
       </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
         <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>121</v>
@@ -1491,104 +1488,104 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
         <v>128</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
         <v>130</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
         <v>132</v>
       </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="D35" t="s">
-        <v>136</v>
-      </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
@@ -1600,14 +1597,12 @@
         <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>140</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G36"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
